--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4537,28 +4537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.7348141108742</v>
+        <v>443.1287385174927</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.6847430722852</v>
+        <v>606.3082894998463</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.1492167159312</v>
+        <v>548.4430773090089</v>
       </c>
       <c r="AD2" t="n">
-        <v>325734.8141108742</v>
+        <v>443128.7385174927</v>
       </c>
       <c r="AE2" t="n">
-        <v>445684.7430722853</v>
+        <v>606308.2894998463</v>
       </c>
       <c r="AF2" t="n">
         <v>7.202329095474834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.79398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>403149.2167159312</v>
+        <v>548443.0773090089</v>
       </c>
     </row>
     <row r="3">
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.5766761917552</v>
+        <v>380.3604036687535</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.6338747686795</v>
+        <v>520.425884616304</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.7340804048073</v>
+        <v>470.7571686108398</v>
       </c>
       <c r="AD3" t="n">
-        <v>282576.6761917552</v>
+        <v>380360.4036687535</v>
       </c>
       <c r="AE3" t="n">
-        <v>386633.8747686795</v>
+        <v>520425.884616304</v>
       </c>
       <c r="AF3" t="n">
         <v>8.198493983548304e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.14351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>349734.0804048073</v>
+        <v>470757.1686108398</v>
       </c>
     </row>
     <row r="4">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>249.6875872517609</v>
+        <v>337.7842786848992</v>
       </c>
       <c r="AB4" t="n">
-        <v>341.633572316618</v>
+        <v>462.171352087326</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.0285436605521</v>
+        <v>418.0623669056774</v>
       </c>
       <c r="AD4" t="n">
-        <v>249687.5872517609</v>
+        <v>337784.2786848992</v>
       </c>
       <c r="AE4" t="n">
-        <v>341633.5723166181</v>
+        <v>462171.352087326</v>
       </c>
       <c r="AF4" t="n">
         <v>8.910563385573049e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>309028.5436605521</v>
+        <v>418062.3669056774</v>
       </c>
     </row>
     <row r="5">
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.6026032731203</v>
+        <v>318.6651292874774</v>
       </c>
       <c r="AB5" t="n">
-        <v>315.5206552669851</v>
+        <v>436.0116884044318</v>
       </c>
       <c r="AC5" t="n">
-        <v>285.4078067644185</v>
+        <v>394.3993448093601</v>
       </c>
       <c r="AD5" t="n">
-        <v>230602.6032731202</v>
+        <v>318665.1292874775</v>
       </c>
       <c r="AE5" t="n">
-        <v>315520.6552669851</v>
+        <v>436011.6884044318</v>
       </c>
       <c r="AF5" t="n">
         <v>9.467363416941096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>285407.8067644186</v>
+        <v>394399.3448093601</v>
       </c>
     </row>
     <row r="6">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.0578697683944</v>
+        <v>304.2987201234795</v>
       </c>
       <c r="AB6" t="n">
-        <v>309.3023503863306</v>
+        <v>416.354933585009</v>
       </c>
       <c r="AC6" t="n">
-        <v>279.782968174126</v>
+        <v>376.6186030814744</v>
       </c>
       <c r="AD6" t="n">
-        <v>226057.8697683944</v>
+        <v>304298.7201234796</v>
       </c>
       <c r="AE6" t="n">
-        <v>309302.3503863306</v>
+        <v>416354.933585009</v>
       </c>
       <c r="AF6" t="n">
         <v>9.770308197768233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>279782.968174126</v>
+        <v>376618.6030814744</v>
       </c>
     </row>
     <row r="7">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>215.5607526207222</v>
+        <v>303.5891132162984</v>
       </c>
       <c r="AB7" t="n">
-        <v>294.9397316047681</v>
+        <v>415.3840181089564</v>
       </c>
       <c r="AC7" t="n">
-        <v>266.7910975710092</v>
+        <v>375.7403504157677</v>
       </c>
       <c r="AD7" t="n">
-        <v>215560.7526207222</v>
+        <v>303589.1132162983</v>
       </c>
       <c r="AE7" t="n">
-        <v>294939.7316047681</v>
+        <v>415384.0181089563</v>
       </c>
       <c r="AF7" t="n">
         <v>9.815736354248577e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>266791.0975710092</v>
+        <v>375740.3504157677</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>568.9134511696603</v>
+        <v>739.0390030666708</v>
       </c>
       <c r="AB2" t="n">
-        <v>778.412482580419</v>
+        <v>1011.185768095553</v>
       </c>
       <c r="AC2" t="n">
-        <v>704.1218877517241</v>
+        <v>914.6796175966516</v>
       </c>
       <c r="AD2" t="n">
-        <v>568913.4511696603</v>
+        <v>739039.0030666708</v>
       </c>
       <c r="AE2" t="n">
-        <v>778412.482580419</v>
+        <v>1011185.768095553</v>
       </c>
       <c r="AF2" t="n">
         <v>4.193289931603763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.78240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>704121.8877517241</v>
+        <v>914679.6175966517</v>
       </c>
     </row>
     <row r="3">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.809680349373</v>
+        <v>574.9010176461649</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.9257871032806</v>
+        <v>786.6049351863626</v>
       </c>
       <c r="AC3" t="n">
-        <v>538.1469049657294</v>
+        <v>711.5324641791357</v>
       </c>
       <c r="AD3" t="n">
-        <v>434809.680349373</v>
+        <v>574901.0176461649</v>
       </c>
       <c r="AE3" t="n">
-        <v>594925.7871032807</v>
+        <v>786604.9351863626</v>
       </c>
       <c r="AF3" t="n">
         <v>5.147048354963016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.89120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>538146.9049657293</v>
+        <v>711532.4641791356</v>
       </c>
     </row>
     <row r="4">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.6579812587545</v>
+        <v>491.7606742408482</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.5188463511628</v>
+        <v>672.8486494461242</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.9865213660904</v>
+        <v>608.6329186919959</v>
       </c>
       <c r="AD4" t="n">
-        <v>371657.9812587546</v>
+        <v>491760.6742408482</v>
       </c>
       <c r="AE4" t="n">
-        <v>508518.8463511628</v>
+        <v>672848.6494461242</v>
       </c>
       <c r="AF4" t="n">
         <v>5.821921965890047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.89351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>459986.5213660904</v>
+        <v>608632.9186919959</v>
       </c>
     </row>
     <row r="5">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.24772729508</v>
+        <v>442.3286215735518</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.2784393892306</v>
+        <v>605.2135341984779</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.5866023668392</v>
+        <v>547.4528039171045</v>
       </c>
       <c r="AD5" t="n">
-        <v>342247.72729508</v>
+        <v>442328.6215735518</v>
       </c>
       <c r="AE5" t="n">
-        <v>468278.4393892306</v>
+        <v>605213.5341984779</v>
       </c>
       <c r="AF5" t="n">
         <v>6.344802202576559e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.00694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>423586.6023668392</v>
+        <v>547452.8039171045</v>
       </c>
     </row>
     <row r="6">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.1848800256931</v>
+        <v>409.2989286930884</v>
       </c>
       <c r="AB6" t="n">
-        <v>423.0403931253789</v>
+        <v>560.0208512322198</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.6660117464128</v>
+        <v>506.5732471848172</v>
       </c>
       <c r="AD6" t="n">
-        <v>309184.8800256932</v>
+        <v>409298.9286930885</v>
       </c>
       <c r="AE6" t="n">
-        <v>423040.3931253789</v>
+        <v>560020.8512322198</v>
       </c>
       <c r="AF6" t="n">
         <v>6.762553688746711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.71064814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>382666.0117464128</v>
+        <v>506573.2471848172</v>
       </c>
     </row>
     <row r="7">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.0633541276151</v>
+        <v>389.1432373762297</v>
       </c>
       <c r="AB7" t="n">
-        <v>395.5092336925566</v>
+        <v>532.4429451661499</v>
       </c>
       <c r="AC7" t="n">
-        <v>357.7623875296341</v>
+        <v>481.6273377678586</v>
       </c>
       <c r="AD7" t="n">
-        <v>289063.3541276151</v>
+        <v>389143.2373762297</v>
       </c>
       <c r="AE7" t="n">
-        <v>395509.2336925566</v>
+        <v>532442.9451661499</v>
       </c>
       <c r="AF7" t="n">
         <v>7.128834691367233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.69212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>357762.3875296341</v>
+        <v>481627.3377678586</v>
       </c>
     </row>
     <row r="8">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>282.5244465016704</v>
+        <v>372.5597704946217</v>
       </c>
       <c r="AB8" t="n">
-        <v>386.5624118024941</v>
+        <v>509.7527141678095</v>
       </c>
       <c r="AC8" t="n">
-        <v>349.6694377638157</v>
+        <v>461.1026305700607</v>
       </c>
       <c r="AD8" t="n">
-        <v>282524.4465016703</v>
+        <v>372559.7704946217</v>
       </c>
       <c r="AE8" t="n">
-        <v>386562.4118024941</v>
+        <v>509752.7141678095</v>
       </c>
       <c r="AF8" t="n">
         <v>7.396780586713965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>349669.4377638157</v>
+        <v>461102.6305700607</v>
       </c>
     </row>
     <row r="9">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>266.3847421805916</v>
+        <v>356.3859007547622</v>
       </c>
       <c r="AB9" t="n">
-        <v>364.4793563168923</v>
+        <v>487.6229120489598</v>
       </c>
       <c r="AC9" t="n">
-        <v>329.6939580999968</v>
+        <v>441.0848657060618</v>
       </c>
       <c r="AD9" t="n">
-        <v>266384.7421805916</v>
+        <v>356385.9007547622</v>
       </c>
       <c r="AE9" t="n">
-        <v>364479.3563168923</v>
+        <v>487622.9120489599</v>
       </c>
       <c r="AF9" t="n">
         <v>7.651254342071198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.41898148148148</v>
       </c>
       <c r="AH9" t="n">
-        <v>329693.9580999968</v>
+        <v>441084.8657060618</v>
       </c>
     </row>
     <row r="10">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>251.1504591053357</v>
+        <v>341.2189374872137</v>
       </c>
       <c r="AB10" t="n">
-        <v>343.6351381240293</v>
+        <v>466.870803787105</v>
       </c>
       <c r="AC10" t="n">
-        <v>310.8390828365199</v>
+        <v>422.3133095309514</v>
       </c>
       <c r="AD10" t="n">
-        <v>251150.4591053357</v>
+        <v>341218.9374872138</v>
       </c>
       <c r="AE10" t="n">
-        <v>343635.1381240293</v>
+        <v>466870.803787105</v>
       </c>
       <c r="AF10" t="n">
         <v>7.877862645484335e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH10" t="n">
-        <v>310839.0828365199</v>
+        <v>422313.3095309514</v>
       </c>
     </row>
     <row r="11">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>246.7156406343285</v>
+        <v>336.7841190162065</v>
       </c>
       <c r="AB11" t="n">
-        <v>337.5672238416177</v>
+        <v>460.8028895046902</v>
       </c>
       <c r="AC11" t="n">
-        <v>305.3502817768485</v>
+        <v>416.8245084712791</v>
       </c>
       <c r="AD11" t="n">
-        <v>246715.6406343285</v>
+        <v>336784.1190162065</v>
       </c>
       <c r="AE11" t="n">
-        <v>337567.2238416177</v>
+        <v>460802.8895046902</v>
       </c>
       <c r="AF11" t="n">
         <v>8.076950936440288e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.50462962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>305350.2817768485</v>
+        <v>416824.5084712791</v>
       </c>
     </row>
     <row r="12">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>242.5114045598284</v>
+        <v>322.5353236860433</v>
       </c>
       <c r="AB12" t="n">
-        <v>331.8148025666844</v>
+        <v>441.3070591214761</v>
       </c>
       <c r="AC12" t="n">
-        <v>300.1468635148191</v>
+        <v>399.1893327772692</v>
       </c>
       <c r="AD12" t="n">
-        <v>242511.4045598284</v>
+        <v>322535.3236860433</v>
       </c>
       <c r="AE12" t="n">
-        <v>331814.8025666844</v>
+        <v>441307.0591214761</v>
       </c>
       <c r="AF12" t="n">
         <v>8.257846081085631e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.13425925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>300146.8635148191</v>
+        <v>399189.3327772692</v>
       </c>
     </row>
     <row r="13">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>230.5555856674513</v>
+        <v>320.5898986305482</v>
       </c>
       <c r="AB13" t="n">
-        <v>315.4563237046384</v>
+        <v>438.6452427344517</v>
       </c>
       <c r="AC13" t="n">
-        <v>285.3496149160923</v>
+        <v>396.7815564103396</v>
       </c>
       <c r="AD13" t="n">
-        <v>230555.5856674513</v>
+        <v>320589.8986305483</v>
       </c>
       <c r="AE13" t="n">
-        <v>315456.3237046384</v>
+        <v>438645.2427344517</v>
       </c>
       <c r="AF13" t="n">
         <v>8.33960009298773e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>285349.6149160923</v>
+        <v>396781.5564103396</v>
       </c>
     </row>
     <row r="14">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>241.7740143777918</v>
+        <v>321.7979335040066</v>
       </c>
       <c r="AB14" t="n">
-        <v>330.8058727882635</v>
+        <v>440.2981293430547</v>
       </c>
       <c r="AC14" t="n">
-        <v>299.2342245784085</v>
+        <v>398.2766938408585</v>
       </c>
       <c r="AD14" t="n">
-        <v>241774.0143777918</v>
+        <v>321797.9335040066</v>
       </c>
       <c r="AE14" t="n">
-        <v>330805.8727882635</v>
+        <v>440298.1293430547</v>
       </c>
       <c r="AF14" t="n">
         <v>8.282948017134444e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>299234.2245784085</v>
+        <v>398276.6938408585</v>
       </c>
     </row>
   </sheetData>
@@ -6933,28 +6933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.7061805907591</v>
+        <v>479.1512209568164</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.2739595307971</v>
+        <v>655.5958391730939</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.3916728668246</v>
+        <v>593.0266924169523</v>
       </c>
       <c r="AD2" t="n">
-        <v>343706.1805907591</v>
+        <v>479151.2209568163</v>
       </c>
       <c r="AE2" t="n">
-        <v>470273.9595307971</v>
+        <v>655595.8391730939</v>
       </c>
       <c r="AF2" t="n">
         <v>1.346137618605092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.51388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>425391.6728668247</v>
+        <v>593026.6924169523</v>
       </c>
     </row>
   </sheetData>
@@ -7230,28 +7230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.7272757037312</v>
+        <v>305.6137612218794</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.0087964178493</v>
+        <v>418.1542308313584</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.1855007598269</v>
+        <v>378.2461779239618</v>
       </c>
       <c r="AD2" t="n">
-        <v>220727.2757037312</v>
+        <v>305613.7612218794</v>
       </c>
       <c r="AE2" t="n">
-        <v>302008.7964178493</v>
+        <v>418154.2308313584</v>
       </c>
       <c r="AF2" t="n">
         <v>1.257365273937298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>273185.5007598269</v>
+        <v>378246.1779239618</v>
       </c>
     </row>
   </sheetData>
@@ -7527,28 +7527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.5432637305238</v>
+        <v>463.270524885732</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.7875377290114</v>
+        <v>633.8671702017718</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.6653586896305</v>
+        <v>573.3717771158749</v>
       </c>
       <c r="AD2" t="n">
-        <v>345543.2637305239</v>
+        <v>463270.524885732</v>
       </c>
       <c r="AE2" t="n">
-        <v>472787.5377290114</v>
+        <v>633867.1702017719</v>
       </c>
       <c r="AF2" t="n">
         <v>6.818380558799418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.56944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>427665.3586896305</v>
+        <v>573371.7771158749</v>
       </c>
     </row>
     <row r="3">
@@ -7633,28 +7633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.4234656671351</v>
+        <v>387.5579878121259</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.0019541879277</v>
+        <v>530.273936776268</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.2080834724645</v>
+        <v>479.6653364944848</v>
       </c>
       <c r="AD3" t="n">
-        <v>289423.4656671351</v>
+        <v>387557.9878121259</v>
       </c>
       <c r="AE3" t="n">
-        <v>396001.9541879277</v>
+        <v>530273.9367762679</v>
       </c>
       <c r="AF3" t="n">
         <v>7.823586429012438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.67592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>358208.0834724645</v>
+        <v>479665.3364944848</v>
       </c>
     </row>
     <row r="4">
@@ -7739,28 +7739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>265.2381917362681</v>
+        <v>353.4919418590553</v>
       </c>
       <c r="AB4" t="n">
-        <v>362.9105954167333</v>
+        <v>483.6632698153981</v>
       </c>
       <c r="AC4" t="n">
-        <v>328.2749175383792</v>
+        <v>437.5031261698783</v>
       </c>
       <c r="AD4" t="n">
-        <v>265238.1917362681</v>
+        <v>353491.9418590553</v>
       </c>
       <c r="AE4" t="n">
-        <v>362910.5954167333</v>
+        <v>483663.269815398</v>
       </c>
       <c r="AF4" t="n">
         <v>8.53760170983835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>328274.9175383791</v>
+        <v>437503.1261698783</v>
       </c>
     </row>
     <row r="5">
@@ -7845,28 +7845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.0738280745175</v>
+        <v>324.3607325862314</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.006626413656</v>
+        <v>443.8046641100704</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.1793273314801</v>
+        <v>401.4485698511627</v>
       </c>
       <c r="AD5" t="n">
-        <v>236073.8280745175</v>
+        <v>324360.7325862314</v>
       </c>
       <c r="AE5" t="n">
-        <v>323006.626413656</v>
+        <v>443804.6641100704</v>
       </c>
       <c r="AF5" t="n">
         <v>9.069722595101909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.96759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>292179.3273314801</v>
+        <v>401448.5698511627</v>
       </c>
     </row>
     <row r="6">
@@ -7951,28 +7951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.2208620738472</v>
+        <v>307.6611599821383</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.6300960000212</v>
+        <v>420.955572140003</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.6976798204764</v>
+        <v>380.7801631498166</v>
       </c>
       <c r="AD6" t="n">
-        <v>229220.8620738472</v>
+        <v>307661.1599821383</v>
       </c>
       <c r="AE6" t="n">
-        <v>313630.0960000212</v>
+        <v>420955.572140003</v>
       </c>
       <c r="AF6" t="n">
         <v>9.477522383983302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.23842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>283697.6798204764</v>
+        <v>380780.1631498166</v>
       </c>
     </row>
     <row r="7">
@@ -8057,28 +8057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.3935791234481</v>
+        <v>305.8338770317391</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.1299268532521</v>
+        <v>418.4554029932326</v>
       </c>
       <c r="AC7" t="n">
-        <v>281.4361233080648</v>
+        <v>378.5186066374044</v>
       </c>
       <c r="AD7" t="n">
-        <v>227393.5791234481</v>
+        <v>305833.8770317391</v>
       </c>
       <c r="AE7" t="n">
-        <v>311129.9268532521</v>
+        <v>418455.4029932326</v>
       </c>
       <c r="AF7" t="n">
         <v>9.587350432765835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>281436.1233080648</v>
+        <v>378518.6066374044</v>
       </c>
     </row>
     <row r="8">
@@ -8163,28 +8163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>227.4954302218583</v>
+        <v>305.9357281301493</v>
       </c>
       <c r="AB8" t="n">
-        <v>311.2692840194502</v>
+        <v>418.5947601594308</v>
       </c>
       <c r="AC8" t="n">
-        <v>281.5621804219099</v>
+        <v>378.6446637512497</v>
       </c>
       <c r="AD8" t="n">
-        <v>227495.4302218583</v>
+        <v>305935.7281301493</v>
       </c>
       <c r="AE8" t="n">
-        <v>311269.2840194502</v>
+        <v>418594.7601594308</v>
       </c>
       <c r="AF8" t="n">
         <v>9.583893375540235e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>281562.18042191</v>
+        <v>378644.6637512497</v>
       </c>
     </row>
   </sheetData>
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.9888105712278</v>
+        <v>300.9491766945494</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.1571752603479</v>
+        <v>411.7719404941197</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.0832273057755</v>
+        <v>372.4730044189084</v>
       </c>
       <c r="AD2" t="n">
-        <v>214988.8105712278</v>
+        <v>300949.1766945494</v>
       </c>
       <c r="AE2" t="n">
-        <v>294157.1752603479</v>
+        <v>411771.9404941198</v>
       </c>
       <c r="AF2" t="n">
         <v>1.15988163471809e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.63194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>266083.2273057755</v>
+        <v>372473.0044189084</v>
       </c>
     </row>
     <row r="3">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.6180042880805</v>
+        <v>300.5783704114021</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.6498217449273</v>
+        <v>411.264586978699</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.6242948977913</v>
+        <v>372.0140720109243</v>
       </c>
       <c r="AD3" t="n">
-        <v>214618.0042880805</v>
+        <v>300578.3704114021</v>
       </c>
       <c r="AE3" t="n">
-        <v>293649.8217449273</v>
+        <v>411264.586978699</v>
       </c>
       <c r="AF3" t="n">
         <v>1.163647592386198e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.57407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>265624.2948977913</v>
+        <v>372014.0720109243</v>
       </c>
     </row>
   </sheetData>
@@ -8863,28 +8863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.6196715910628</v>
+        <v>622.851490882989</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.7097704649988</v>
+        <v>852.2128880945652</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.5571186873143</v>
+        <v>770.8788861431198</v>
       </c>
       <c r="AD2" t="n">
-        <v>483619.6715910628</v>
+        <v>622851.490882989</v>
       </c>
       <c r="AE2" t="n">
-        <v>661709.7704649988</v>
+        <v>852212.8880945651</v>
       </c>
       <c r="AF2" t="n">
         <v>4.921283497089018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.25231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>598557.1186873143</v>
+        <v>770878.8861431198</v>
       </c>
     </row>
     <row r="3">
@@ -8969,28 +8969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.2973612187963</v>
+        <v>500.696623304194</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.7078712719223</v>
+        <v>685.0752091808433</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.9168042593254</v>
+        <v>619.6925927257179</v>
       </c>
       <c r="AD3" t="n">
-        <v>381297.3612187962</v>
+        <v>500696.623304194</v>
       </c>
       <c r="AE3" t="n">
-        <v>521707.8712719223</v>
+        <v>685075.2091808433</v>
       </c>
       <c r="AF3" t="n">
         <v>5.894823209911272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.58796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>471916.8042593254</v>
+        <v>619692.5927257179</v>
       </c>
     </row>
     <row r="4">
@@ -9075,28 +9075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.2955188973454</v>
+        <v>434.7617495795865</v>
       </c>
       <c r="AB4" t="n">
-        <v>458.7661211496621</v>
+        <v>594.8602061095025</v>
       </c>
       <c r="AC4" t="n">
-        <v>414.9821264294325</v>
+        <v>538.0875829299538</v>
       </c>
       <c r="AD4" t="n">
-        <v>335295.5188973454</v>
+        <v>434761.7495795866</v>
       </c>
       <c r="AE4" t="n">
-        <v>458766.1211496621</v>
+        <v>594860.2061095026</v>
       </c>
       <c r="AF4" t="n">
         <v>6.615576602138928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.01851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>414982.1264294325</v>
+        <v>538087.5829299538</v>
       </c>
     </row>
     <row r="5">
@@ -9181,28 +9181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.2292683699218</v>
+        <v>400.7286534410865</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.155174281137</v>
+        <v>548.2946225385713</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.8196629111648</v>
+        <v>495.9661532998251</v>
       </c>
       <c r="AD5" t="n">
-        <v>301229.2683699218</v>
+        <v>400728.6534410865</v>
       </c>
       <c r="AE5" t="n">
-        <v>412155.174281137</v>
+        <v>548294.6225385712</v>
       </c>
       <c r="AF5" t="n">
         <v>7.11454123589813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.54861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>372819.6629111647</v>
+        <v>495966.1532998251</v>
       </c>
     </row>
     <row r="6">
@@ -9287,28 +9287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.6191933620747</v>
+        <v>370.1013201184185</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.9555604030631</v>
+        <v>506.3889539039124</v>
       </c>
       <c r="AC6" t="n">
-        <v>347.3113806032075</v>
+        <v>458.0599028646828</v>
       </c>
       <c r="AD6" t="n">
-        <v>280619.1933620747</v>
+        <v>370101.3201184185</v>
       </c>
       <c r="AE6" t="n">
-        <v>383955.5604030631</v>
+        <v>506388.9539039124</v>
       </c>
       <c r="AF6" t="n">
         <v>7.547786232126322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.42592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>347311.3806032075</v>
+        <v>458059.9028646828</v>
       </c>
     </row>
     <row r="7">
@@ -9393,28 +9393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.4416619647841</v>
+        <v>352.9911085288323</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.4525041260889</v>
+        <v>482.9780075577798</v>
       </c>
       <c r="AC7" t="n">
-        <v>326.0514230305612</v>
+        <v>436.8832643803555</v>
       </c>
       <c r="AD7" t="n">
-        <v>263441.6619647841</v>
+        <v>352991.1085288323</v>
       </c>
       <c r="AE7" t="n">
-        <v>360452.5041260889</v>
+        <v>482978.0075577798</v>
       </c>
       <c r="AF7" t="n">
         <v>7.863048259331751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.68518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>326051.4230305612</v>
+        <v>436883.2643803555</v>
       </c>
     </row>
     <row r="8">
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>257.1463724736545</v>
+        <v>336.7127261416659</v>
       </c>
       <c r="AB8" t="n">
-        <v>351.8390113155879</v>
+        <v>460.7052066241123</v>
       </c>
       <c r="AC8" t="n">
-        <v>318.2599898848871</v>
+        <v>416.7361483077249</v>
       </c>
       <c r="AD8" t="n">
-        <v>257146.3724736545</v>
+        <v>336712.7261416659</v>
       </c>
       <c r="AE8" t="n">
-        <v>351839.0113155879</v>
+        <v>460705.2066241123</v>
       </c>
       <c r="AF8" t="n">
         <v>8.163772670191199e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.03703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>318259.9898848871</v>
+        <v>416736.1483077249</v>
       </c>
     </row>
     <row r="9">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>241.3446671392015</v>
+        <v>320.8768553884319</v>
       </c>
       <c r="AB9" t="n">
-        <v>330.2184209549613</v>
+        <v>439.0378696302267</v>
       </c>
       <c r="AC9" t="n">
-        <v>298.7028383235827</v>
+        <v>397.1367115462373</v>
       </c>
       <c r="AD9" t="n">
-        <v>241344.6671392015</v>
+        <v>320876.8553884319</v>
       </c>
       <c r="AE9" t="n">
-        <v>330218.4209549613</v>
+        <v>439037.8696302267</v>
       </c>
       <c r="AF9" t="n">
         <v>8.449719173525392e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.45833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>298702.8383235827</v>
+        <v>397136.7115462373</v>
       </c>
     </row>
     <row r="10">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>237.3930368608465</v>
+        <v>316.9252251100768</v>
       </c>
       <c r="AB10" t="n">
-        <v>324.8116260744945</v>
+        <v>433.6310747497573</v>
       </c>
       <c r="AC10" t="n">
-        <v>293.8120603580217</v>
+        <v>392.2459335806756</v>
       </c>
       <c r="AD10" t="n">
-        <v>237393.0368608465</v>
+        <v>316925.2251100768</v>
       </c>
       <c r="AE10" t="n">
-        <v>324811.6260744946</v>
+        <v>433631.0747497573</v>
       </c>
       <c r="AF10" t="n">
         <v>8.641111097815883e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH10" t="n">
-        <v>293812.0603580216</v>
+        <v>392245.9335806756</v>
       </c>
     </row>
     <row r="11">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>236.8820191913491</v>
+        <v>316.4142074405794</v>
       </c>
       <c r="AB11" t="n">
-        <v>324.1124291545801</v>
+        <v>432.9318778298425</v>
       </c>
       <c r="AC11" t="n">
-        <v>293.1795938108146</v>
+        <v>391.6134670334683</v>
       </c>
       <c r="AD11" t="n">
-        <v>236882.0191913491</v>
+        <v>316414.2074405794</v>
       </c>
       <c r="AE11" t="n">
-        <v>324112.4291545801</v>
+        <v>432931.8778298425</v>
       </c>
       <c r="AF11" t="n">
         <v>8.655648714161864e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>293179.5938108146</v>
+        <v>391613.4670334684</v>
       </c>
     </row>
     <row r="12">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>237.0114921331847</v>
+        <v>316.5436803824151</v>
       </c>
       <c r="AB12" t="n">
-        <v>324.2895797455426</v>
+        <v>433.109028420805</v>
       </c>
       <c r="AC12" t="n">
-        <v>293.3398373980081</v>
+        <v>391.7737106206619</v>
       </c>
       <c r="AD12" t="n">
-        <v>237011.4921331847</v>
+        <v>316543.6803824151</v>
       </c>
       <c r="AE12" t="n">
-        <v>324289.5797455426</v>
+        <v>433109.0284208051</v>
       </c>
       <c r="AF12" t="n">
         <v>8.650001871448963e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.07638888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>293339.8373980081</v>
+        <v>391773.7106206618</v>
       </c>
     </row>
   </sheetData>
@@ -10220,28 +10220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.2367318406547</v>
+        <v>358.0080579229551</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.4356214556035</v>
+        <v>489.842419051005</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.3224674079253</v>
+        <v>443.0925460749293</v>
       </c>
       <c r="AD2" t="n">
-        <v>261236.7318406547</v>
+        <v>358008.0579229551</v>
       </c>
       <c r="AE2" t="n">
-        <v>357435.6214556035</v>
+        <v>489842.419051005</v>
       </c>
       <c r="AF2" t="n">
         <v>9.096783397767696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.87731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>323322.4674079253</v>
+        <v>443092.5460749293</v>
       </c>
     </row>
     <row r="3">
@@ -10326,28 +10326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.1544545344204</v>
+        <v>313.2452314666154</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.4345019242264</v>
+        <v>428.595945096912</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.902507354721</v>
+        <v>387.6913496350489</v>
       </c>
       <c r="AD3" t="n">
-        <v>226154.4545344204</v>
+        <v>313245.2314666154</v>
       </c>
       <c r="AE3" t="n">
-        <v>309434.5019242264</v>
+        <v>428595.945096912</v>
       </c>
       <c r="AF3" t="n">
         <v>1.014403819683869e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>279902.507354721</v>
+        <v>387691.3496350489</v>
       </c>
     </row>
     <row r="4">
@@ -10432,28 +10432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.1187232160383</v>
+        <v>297.4957966092015</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.1761480567474</v>
+        <v>407.0468735089701</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.432319189679</v>
+        <v>368.1988911951482</v>
       </c>
       <c r="AD4" t="n">
-        <v>220118.7232160383</v>
+        <v>297495.7966092015</v>
       </c>
       <c r="AE4" t="n">
-        <v>301176.1480567474</v>
+        <v>407046.8735089701</v>
       </c>
       <c r="AF4" t="n">
         <v>1.060163720510377e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.20370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>272432.3191896791</v>
+        <v>368198.8911951482</v>
       </c>
     </row>
     <row r="5">
@@ -10538,28 +10538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>220.171071739749</v>
+        <v>297.5481451329122</v>
       </c>
       <c r="AB5" t="n">
-        <v>301.2477736163421</v>
+        <v>407.1184990685649</v>
       </c>
       <c r="AC5" t="n">
-        <v>272.4971089063932</v>
+        <v>368.2636809118624</v>
       </c>
       <c r="AD5" t="n">
-        <v>220171.071739749</v>
+        <v>297548.1451329121</v>
       </c>
       <c r="AE5" t="n">
-        <v>301247.7736163421</v>
+        <v>407118.4990685649</v>
       </c>
       <c r="AF5" t="n">
         <v>1.05948117983657e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.20370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>272497.1089063932</v>
+        <v>368263.6809118623</v>
       </c>
     </row>
   </sheetData>
@@ -10835,28 +10835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.3692564765449</v>
+        <v>505.6371539589627</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.0157062366873</v>
+        <v>691.8350611835276</v>
       </c>
       <c r="AC2" t="n">
-        <v>479.4317511151727</v>
+        <v>625.8072939407779</v>
       </c>
       <c r="AD2" t="n">
-        <v>387369.2564765449</v>
+        <v>505637.1539589627</v>
       </c>
       <c r="AE2" t="n">
-        <v>530015.7062366873</v>
+        <v>691835.0611835276</v>
       </c>
       <c r="AF2" t="n">
         <v>6.116290055164342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.25925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>479431.7511151728</v>
+        <v>625807.2939407779</v>
       </c>
     </row>
     <row r="3">
@@ -10941,28 +10941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.4844453985794</v>
+        <v>422.9242291624108</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.2914922688855</v>
+        <v>578.6635884401794</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.2250761646446</v>
+        <v>523.4367477188952</v>
       </c>
       <c r="AD3" t="n">
-        <v>314484.4453985794</v>
+        <v>422924.2291624108</v>
       </c>
       <c r="AE3" t="n">
-        <v>430291.4922688855</v>
+        <v>578663.5884401794</v>
       </c>
       <c r="AF3" t="n">
         <v>7.114373641567341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.85648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>389225.0761646446</v>
+        <v>523436.7477188952</v>
       </c>
     </row>
     <row r="4">
@@ -11047,28 +11047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.5518028624145</v>
+        <v>376.1303185187356</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.7586213977098</v>
+        <v>514.6380954958637</v>
       </c>
       <c r="AC4" t="n">
-        <v>343.5149915660843</v>
+        <v>465.5217579608412</v>
       </c>
       <c r="AD4" t="n">
-        <v>277551.8028624145</v>
+        <v>376130.3185187356</v>
       </c>
       <c r="AE4" t="n">
-        <v>379758.6213977098</v>
+        <v>514638.0954958637</v>
       </c>
       <c r="AF4" t="n">
         <v>7.82086352576579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.96990740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>343514.9915660843</v>
+        <v>465521.7579608412</v>
       </c>
     </row>
     <row r="5">
@@ -11153,28 +11153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>257.0425917632666</v>
+        <v>345.7940047308615</v>
       </c>
       <c r="AB5" t="n">
-        <v>351.6970139691535</v>
+        <v>473.1306126275857</v>
       </c>
       <c r="AC5" t="n">
-        <v>318.1315445659018</v>
+        <v>427.9756910013935</v>
       </c>
       <c r="AD5" t="n">
-        <v>257042.5917632666</v>
+        <v>345794.0047308615</v>
       </c>
       <c r="AE5" t="n">
-        <v>351697.0139691535</v>
+        <v>473130.6126275857</v>
       </c>
       <c r="AF5" t="n">
         <v>8.342015171112472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>318131.5445659018</v>
+        <v>427975.6910013935</v>
       </c>
     </row>
     <row r="6">
@@ -11259,28 +11259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.1348352176714</v>
+        <v>327.8520827664852</v>
       </c>
       <c r="AB6" t="n">
-        <v>327.1948314290213</v>
+        <v>448.5816834541931</v>
       </c>
       <c r="AC6" t="n">
-        <v>295.9678159383629</v>
+        <v>405.7696771736711</v>
       </c>
       <c r="AD6" t="n">
-        <v>239134.8352176714</v>
+        <v>327852.0827664852</v>
       </c>
       <c r="AE6" t="n">
-        <v>327194.8314290214</v>
+        <v>448581.6834541931</v>
       </c>
       <c r="AF6" t="n">
         <v>8.768575101194555e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH6" t="n">
-        <v>295967.815938363</v>
+        <v>405769.6771736711</v>
       </c>
     </row>
     <row r="7">
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.8450783583559</v>
+        <v>311.6679034107359</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.5889086096216</v>
+        <v>426.437775264055</v>
       </c>
       <c r="AC7" t="n">
-        <v>288.1832303143554</v>
+        <v>385.7391525020294</v>
       </c>
       <c r="AD7" t="n">
-        <v>232845.0783583559</v>
+        <v>311667.9034107359</v>
       </c>
       <c r="AE7" t="n">
-        <v>318588.9086096216</v>
+        <v>426437.775264055</v>
       </c>
       <c r="AF7" t="n">
         <v>9.128741388313141e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>288183.2303143554</v>
+        <v>385739.1525020294</v>
       </c>
     </row>
     <row r="8">
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>230.5346713478433</v>
+        <v>309.3574964002233</v>
       </c>
       <c r="AB8" t="n">
-        <v>315.4277078098763</v>
+        <v>423.2765744643081</v>
       </c>
       <c r="AC8" t="n">
-        <v>285.3237300821635</v>
+        <v>382.8796522698371</v>
       </c>
       <c r="AD8" t="n">
-        <v>230534.6713478433</v>
+        <v>309357.4964002233</v>
       </c>
       <c r="AE8" t="n">
-        <v>315427.7078098762</v>
+        <v>423276.574464308</v>
       </c>
       <c r="AF8" t="n">
         <v>9.248198676425069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>285323.7300821635</v>
+        <v>382879.6522698371</v>
       </c>
     </row>
     <row r="9">
@@ -11577,28 +11577,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>230.6087999839252</v>
+        <v>309.4316250363051</v>
       </c>
       <c r="AB9" t="n">
-        <v>315.529133880088</v>
+        <v>423.3780005345198</v>
       </c>
       <c r="AC9" t="n">
-        <v>285.4154761905867</v>
+        <v>382.9713983782603</v>
       </c>
       <c r="AD9" t="n">
-        <v>230608.7999839252</v>
+        <v>309431.6250363051</v>
       </c>
       <c r="AE9" t="n">
-        <v>315529.133880088</v>
+        <v>423378.0005345198</v>
       </c>
       <c r="AF9" t="n">
         <v>9.239611081678827e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.05324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>285415.4761905867</v>
+        <v>382971.3983782603</v>
       </c>
     </row>
   </sheetData>
@@ -11874,28 +11874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.792725521894</v>
+        <v>312.924741371731</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.0443006815874</v>
+        <v>428.1574364100661</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.1677919850649</v>
+        <v>387.2946916018248</v>
       </c>
       <c r="AD2" t="n">
-        <v>228792.725521894</v>
+        <v>312924.741371731</v>
       </c>
       <c r="AE2" t="n">
-        <v>313044.3006815874</v>
+        <v>428157.4364100661</v>
       </c>
       <c r="AF2" t="n">
         <v>1.323788621456728e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.10185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>283167.7919850649</v>
+        <v>387294.6916018248</v>
       </c>
     </row>
   </sheetData>
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.099991017388</v>
+        <v>297.4089567549198</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.2045649010623</v>
+        <v>406.9280553892379</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.5078485316554</v>
+        <v>368.091412910001</v>
       </c>
       <c r="AD2" t="n">
-        <v>212099.9910173881</v>
+        <v>297408.9567549198</v>
       </c>
       <c r="AE2" t="n">
-        <v>290204.5649010623</v>
+        <v>406928.0553892379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.225996332361577e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>262507.8485316554</v>
+        <v>368091.412910001</v>
       </c>
     </row>
   </sheetData>
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.4796142780007</v>
+        <v>658.9410364302175</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.0924849094206</v>
+        <v>901.5921964706639</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.562956525112</v>
+        <v>815.5455026320983</v>
       </c>
       <c r="AD2" t="n">
-        <v>509479.6142780007</v>
+        <v>658941.0364302176</v>
       </c>
       <c r="AE2" t="n">
-        <v>697092.4849094206</v>
+        <v>901592.1964706639</v>
       </c>
       <c r="AF2" t="n">
         <v>4.677943289381728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.29398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>630562.956525112</v>
+        <v>815545.5026320983</v>
       </c>
     </row>
     <row r="3">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.8877240344768</v>
+        <v>521.4707301297341</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.8805140590334</v>
+        <v>713.4992586284581</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.400689559387</v>
+        <v>645.403890787456</v>
       </c>
       <c r="AD3" t="n">
-        <v>401887.7240344768</v>
+        <v>521470.7301297341</v>
       </c>
       <c r="AE3" t="n">
-        <v>549880.5140590335</v>
+        <v>713499.258628458</v>
       </c>
       <c r="AF3" t="n">
         <v>5.630202100257111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.34027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>497400.689559387</v>
+        <v>645403.8907874561</v>
       </c>
     </row>
     <row r="4">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.6472681624438</v>
+        <v>453.326733573492</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.1933529473432</v>
+        <v>620.2616362392536</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.3187592625636</v>
+        <v>561.0647362192526</v>
       </c>
       <c r="AD4" t="n">
-        <v>343647.2681624438</v>
+        <v>453326.733573492</v>
       </c>
       <c r="AE4" t="n">
-        <v>470193.3529473431</v>
+        <v>620261.6362392536</v>
       </c>
       <c r="AF4" t="n">
         <v>6.335131723526044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.63194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>425318.7592625635</v>
+        <v>561064.7362192526</v>
       </c>
     </row>
     <row r="5">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.6716963982277</v>
+        <v>417.312981509658</v>
       </c>
       <c r="AB5" t="n">
-        <v>434.6524296981944</v>
+        <v>570.9860318509079</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.1698118463144</v>
+        <v>516.4919263549854</v>
       </c>
       <c r="AD5" t="n">
-        <v>317671.6963982277</v>
+        <v>417312.981509658</v>
       </c>
       <c r="AE5" t="n">
-        <v>434652.4296981944</v>
+        <v>570986.031850908</v>
       </c>
       <c r="AF5" t="n">
         <v>6.8495622262307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.01157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>393169.8118463143</v>
+        <v>516491.9263549853</v>
       </c>
     </row>
     <row r="6">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>286.7823074296016</v>
+        <v>386.4567469299557</v>
       </c>
       <c r="AB6" t="n">
-        <v>392.3882049676566</v>
+        <v>528.7671704179637</v>
       </c>
       <c r="AC6" t="n">
-        <v>354.9392254058471</v>
+        <v>478.3023738026573</v>
       </c>
       <c r="AD6" t="n">
-        <v>286782.3074296017</v>
+        <v>386456.7469299557</v>
       </c>
       <c r="AE6" t="n">
-        <v>392388.2049676566</v>
+        <v>528767.1704179638</v>
       </c>
       <c r="AF6" t="n">
         <v>7.261343420340432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.86574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>354939.2254058471</v>
+        <v>478302.3738026573</v>
       </c>
     </row>
     <row r="7">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.686957695021</v>
+        <v>368.3573823145377</v>
       </c>
       <c r="AB7" t="n">
-        <v>381.3117903191787</v>
+        <v>504.0028212635368</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.9199282255744</v>
+        <v>455.9014993745465</v>
       </c>
       <c r="AD7" t="n">
-        <v>278686.9576950209</v>
+        <v>368357.3823145378</v>
       </c>
       <c r="AE7" t="n">
-        <v>381311.7903191787</v>
+        <v>504002.8212635368</v>
       </c>
       <c r="AF7" t="n">
         <v>7.604099762188527e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>344919.9282255744</v>
+        <v>455901.4993745465</v>
       </c>
     </row>
     <row r="8">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.0212975191507</v>
+        <v>351.6575567198867</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.5090988295165</v>
+        <v>481.1533831406267</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.293493607907</v>
+        <v>435.2327795566991</v>
       </c>
       <c r="AD8" t="n">
-        <v>262021.2975191507</v>
+        <v>351657.5567198867</v>
       </c>
       <c r="AE8" t="n">
-        <v>358509.0988295164</v>
+        <v>481153.3831406267</v>
       </c>
       <c r="AF8" t="n">
         <v>7.900681674564859e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>324293.493607907</v>
+        <v>435232.7795566991</v>
       </c>
     </row>
     <row r="9">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>246.2684334914067</v>
+        <v>335.9720124998501</v>
       </c>
       <c r="AB9" t="n">
-        <v>336.9553352992857</v>
+        <v>459.6917295414004</v>
       </c>
       <c r="AC9" t="n">
-        <v>304.7967910182055</v>
+        <v>415.819396055363</v>
       </c>
       <c r="AD9" t="n">
-        <v>246268.4334914067</v>
+        <v>335972.0124998501</v>
       </c>
       <c r="AE9" t="n">
-        <v>336955.3352992857</v>
+        <v>459691.7295414004</v>
       </c>
       <c r="AF9" t="n">
         <v>8.172282036637235e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>304796.7910182055</v>
+        <v>415819.396055363</v>
       </c>
     </row>
     <row r="10">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>242.1410478700647</v>
+        <v>321.840611997671</v>
       </c>
       <c r="AB10" t="n">
-        <v>331.3080642047659</v>
+        <v>440.3565239409285</v>
       </c>
       <c r="AC10" t="n">
-        <v>299.6884875509501</v>
+        <v>398.3295153402686</v>
       </c>
       <c r="AD10" t="n">
-        <v>242141.0478700646</v>
+        <v>321840.611997671</v>
       </c>
       <c r="AE10" t="n">
-        <v>331308.0642047659</v>
+        <v>440356.5239409285</v>
       </c>
       <c r="AF10" t="n">
         <v>8.363965116931559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>299688.4875509501</v>
+        <v>398329.5153402686</v>
       </c>
     </row>
     <row r="11">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>239.0853643350107</v>
+        <v>318.784928462617</v>
       </c>
       <c r="AB11" t="n">
-        <v>327.1271431848638</v>
+        <v>436.1756029210243</v>
       </c>
       <c r="AC11" t="n">
-        <v>295.9065877652267</v>
+        <v>394.5476155545446</v>
       </c>
       <c r="AD11" t="n">
-        <v>239085.3643350107</v>
+        <v>318784.928462617</v>
       </c>
       <c r="AE11" t="n">
-        <v>327127.1431848638</v>
+        <v>436175.6029210243</v>
       </c>
       <c r="AF11" t="n">
         <v>8.498818130183712e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>295906.5877652267</v>
+        <v>394547.6155545446</v>
       </c>
     </row>
     <row r="12">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>238.6623231592789</v>
+        <v>318.3618872868852</v>
       </c>
       <c r="AB12" t="n">
-        <v>326.5483195849684</v>
+        <v>435.5967793211286</v>
       </c>
       <c r="AC12" t="n">
-        <v>295.383006277321</v>
+        <v>394.0240340666389</v>
       </c>
       <c r="AD12" t="n">
-        <v>238662.3231592789</v>
+        <v>318361.8872868852</v>
       </c>
       <c r="AE12" t="n">
-        <v>326548.3195849684</v>
+        <v>435596.7793211286</v>
       </c>
       <c r="AF12" t="n">
         <v>8.520129405324526e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH12" t="n">
-        <v>295383.006277321</v>
+        <v>394024.0340666389</v>
       </c>
     </row>
     <row r="13">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>238.7479627181681</v>
+        <v>318.4475268457745</v>
       </c>
       <c r="AB13" t="n">
-        <v>326.6654954075912</v>
+        <v>435.7139551437515</v>
       </c>
       <c r="AC13" t="n">
-        <v>295.4889990038901</v>
+        <v>394.1300267932079</v>
       </c>
       <c r="AD13" t="n">
-        <v>238747.9627181681</v>
+        <v>318447.5268457744</v>
       </c>
       <c r="AE13" t="n">
-        <v>326665.4954075912</v>
+        <v>435713.9551437515</v>
       </c>
       <c r="AF13" t="n">
         <v>8.519063841567486e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH13" t="n">
-        <v>295488.9990038901</v>
+        <v>394130.0267932079</v>
       </c>
     </row>
   </sheetData>
@@ -13931,28 +13931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.0328514671438</v>
+        <v>330.5452833789185</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.6870486454584</v>
+        <v>452.2666393477497</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.6039338274763</v>
+        <v>409.1029460486147</v>
       </c>
       <c r="AD2" t="n">
-        <v>238032.8514671438</v>
+        <v>330545.2833789185</v>
       </c>
       <c r="AE2" t="n">
-        <v>325687.0486454584</v>
+        <v>452266.6393477496</v>
       </c>
       <c r="AF2" t="n">
         <v>1.392040129935412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>294603.9338274763</v>
+        <v>409102.9460486147</v>
       </c>
     </row>
   </sheetData>
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.1555929126408</v>
+        <v>376.2448799009085</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.9529976986529</v>
+        <v>514.794843433044</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.4999396726918</v>
+        <v>465.6635460948942</v>
       </c>
       <c r="AD2" t="n">
-        <v>279155.5929126408</v>
+        <v>376244.8799009085</v>
       </c>
       <c r="AE2" t="n">
-        <v>381952.9976986529</v>
+        <v>514794.843433044</v>
       </c>
       <c r="AF2" t="n">
         <v>8.564997267013051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>345499.9396726918</v>
+        <v>465663.5460948942</v>
       </c>
     </row>
     <row r="3">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.4289992652181</v>
+        <v>329.7078723281767</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.7020520071335</v>
+        <v>451.1208566041566</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.0448737104253</v>
+        <v>408.0665152019541</v>
       </c>
       <c r="AD3" t="n">
-        <v>242428.9992652181</v>
+        <v>329707.8723281767</v>
       </c>
       <c r="AE3" t="n">
-        <v>331702.0520071335</v>
+        <v>451120.8566041567</v>
       </c>
       <c r="AF3" t="n">
         <v>9.589559346051889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.47685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>300044.8737104253</v>
+        <v>408066.5152019541</v>
       </c>
     </row>
     <row r="4">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.8832646529875</v>
+        <v>300.4873744359</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.9587156137399</v>
+        <v>411.1400822705579</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.8538838079003</v>
+        <v>371.9014498573848</v>
       </c>
       <c r="AD4" t="n">
-        <v>222883.2646529875</v>
+        <v>300487.3744359</v>
       </c>
       <c r="AE4" t="n">
-        <v>304958.7156137399</v>
+        <v>411140.0822705579</v>
       </c>
       <c r="AF4" t="n">
         <v>1.027457958289936e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.30787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>275853.8838079003</v>
+        <v>371901.4498573848</v>
       </c>
     </row>
     <row r="5">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.4253358442239</v>
+        <v>299.0294456271363</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.9639130983109</v>
+        <v>409.1452797551278</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.0494624448203</v>
+        <v>370.0970284943044</v>
       </c>
       <c r="AD5" t="n">
-        <v>221425.3358442239</v>
+        <v>299029.4456271363</v>
       </c>
       <c r="AE5" t="n">
-        <v>302963.9130983109</v>
+        <v>409145.2797551278</v>
       </c>
       <c r="AF5" t="n">
         <v>1.03911387227561e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>274049.4624448203</v>
+        <v>370097.0284943044</v>
       </c>
     </row>
   </sheetData>
@@ -14843,28 +14843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6390977103994</v>
+        <v>358.622314478331</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.5131797220052</v>
+        <v>490.6828719691568</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.8698166047975</v>
+        <v>443.8527873461558</v>
       </c>
       <c r="AD2" t="n">
-        <v>257639.0977103995</v>
+        <v>358622.314478331</v>
       </c>
       <c r="AE2" t="n">
-        <v>352513.1797220053</v>
+        <v>490682.8719691568</v>
       </c>
       <c r="AF2" t="n">
         <v>1.420651546724761e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>318869.8166047975</v>
+        <v>443852.7873461558</v>
       </c>
     </row>
   </sheetData>
@@ -15140,28 +15140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.8784013761014</v>
+        <v>538.2721348492693</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.8137113216487</v>
+        <v>736.4876817913893</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.2904378200971</v>
+        <v>666.1983311081717</v>
       </c>
       <c r="AD2" t="n">
-        <v>409878.4013761014</v>
+        <v>538272.1348492693</v>
       </c>
       <c r="AE2" t="n">
-        <v>560813.7113216487</v>
+        <v>736487.6817913892</v>
       </c>
       <c r="AF2" t="n">
         <v>5.789181805385293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.18518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>507290.4378200971</v>
+        <v>666198.3311081717</v>
       </c>
     </row>
     <row r="3">
@@ -15246,28 +15246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.5295062119598</v>
+        <v>442.2562297270509</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.3497846825365</v>
+        <v>605.1144844803924</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.79640172338</v>
+        <v>547.3632073650961</v>
       </c>
       <c r="AD3" t="n">
-        <v>333529.5062119598</v>
+        <v>442256.2297270509</v>
       </c>
       <c r="AE3" t="n">
-        <v>456349.7846825365</v>
+        <v>605114.4844803924</v>
       </c>
       <c r="AF3" t="n">
         <v>6.764859706991502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>412796.40172338</v>
+        <v>547363.2073650961</v>
       </c>
     </row>
     <row r="4">
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.6762729353245</v>
+        <v>393.5187488581346</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.1890768297659</v>
+        <v>538.429713009635</v>
       </c>
       <c r="AC4" t="n">
-        <v>364.7092772165557</v>
+        <v>487.0427368908431</v>
       </c>
       <c r="AD4" t="n">
-        <v>294676.2729353245</v>
+        <v>393518.7488581346</v>
       </c>
       <c r="AE4" t="n">
-        <v>403189.0768297659</v>
+        <v>538429.713009635</v>
       </c>
       <c r="AF4" t="n">
         <v>7.468522036597737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.52546296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>364709.2772165557</v>
+        <v>487042.7368908431</v>
       </c>
     </row>
     <row r="5">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.6263208327474</v>
+        <v>361.5172293555719</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.0193595877881</v>
+        <v>494.6438222188289</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.4189154446882</v>
+        <v>447.4357100632277</v>
       </c>
       <c r="AD5" t="n">
-        <v>272626.3208327473</v>
+        <v>361517.2293555719</v>
       </c>
       <c r="AE5" t="n">
-        <v>373019.3595877881</v>
+        <v>494643.8222188288</v>
       </c>
       <c r="AF5" t="n">
         <v>8.015199001353592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.19444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>337418.9154446882</v>
+        <v>447435.7100632277</v>
       </c>
     </row>
     <row r="6">
@@ -15564,28 +15564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>254.8533069341258</v>
+        <v>343.7100500381728</v>
       </c>
       <c r="AB6" t="n">
-        <v>348.7015378814945</v>
+        <v>470.2792538794564</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.4219525118709</v>
+        <v>425.3964619302787</v>
       </c>
       <c r="AD6" t="n">
-        <v>254853.3069341258</v>
+        <v>343710.0500381728</v>
       </c>
       <c r="AE6" t="n">
-        <v>348701.5378814944</v>
+        <v>470279.2538794564</v>
       </c>
       <c r="AF6" t="n">
         <v>8.407158447621273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.34953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>315421.9525118709</v>
+        <v>425396.4619302787</v>
       </c>
     </row>
     <row r="7">
@@ -15670,28 +15670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.1782384999606</v>
+        <v>326.1023014117118</v>
       </c>
       <c r="AB7" t="n">
-        <v>324.5177294808959</v>
+        <v>446.1875554096869</v>
       </c>
       <c r="AC7" t="n">
-        <v>293.5462128428294</v>
+        <v>403.6040413495528</v>
       </c>
       <c r="AD7" t="n">
-        <v>237178.2384999606</v>
+        <v>326102.3014117118</v>
       </c>
       <c r="AE7" t="n">
-        <v>324517.7294808959</v>
+        <v>446187.5554096869</v>
       </c>
       <c r="AF7" t="n">
         <v>8.824316186802335e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>293546.2128428295</v>
+        <v>403604.0413495528</v>
       </c>
     </row>
     <row r="8">
@@ -15776,28 +15776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>232.9664087129406</v>
+        <v>311.9730696434871</v>
       </c>
       <c r="AB8" t="n">
-        <v>318.7549181534818</v>
+        <v>426.8553171666893</v>
       </c>
       <c r="AC8" t="n">
-        <v>288.3333961403455</v>
+        <v>386.1168447915</v>
       </c>
       <c r="AD8" t="n">
-        <v>232966.4087129406</v>
+        <v>311973.0696434871</v>
       </c>
       <c r="AE8" t="n">
-        <v>318754.9181534818</v>
+        <v>426855.3171666893</v>
       </c>
       <c r="AF8" t="n">
         <v>9.045935172975544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>288333.3961403455</v>
+        <v>386116.8447915</v>
       </c>
     </row>
     <row r="9">
@@ -15882,28 +15882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>221.6945926164475</v>
+        <v>310.5844901094176</v>
       </c>
       <c r="AB9" t="n">
-        <v>303.3323220928376</v>
+        <v>424.9554013883699</v>
       </c>
       <c r="AC9" t="n">
-        <v>274.3827110019747</v>
+        <v>384.3982543085149</v>
       </c>
       <c r="AD9" t="n">
-        <v>221694.5926164475</v>
+        <v>310584.4901094176</v>
       </c>
       <c r="AE9" t="n">
-        <v>303332.3220928375</v>
+        <v>424955.4013883699</v>
       </c>
       <c r="AF9" t="n">
         <v>9.123545915148763e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>274382.7110019746</v>
+        <v>384398.2543085149</v>
       </c>
     </row>
     <row r="10">
@@ -15988,28 +15988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>221.8150985740623</v>
+        <v>310.7049960670325</v>
       </c>
       <c r="AB10" t="n">
-        <v>303.4972036603937</v>
+        <v>425.1202829559262</v>
       </c>
       <c r="AC10" t="n">
-        <v>274.531856504136</v>
+        <v>384.5473998106763</v>
       </c>
       <c r="AD10" t="n">
-        <v>221815.0985740623</v>
+        <v>310704.9960670325</v>
       </c>
       <c r="AE10" t="n">
-        <v>303497.2036603937</v>
+        <v>425120.2829559262</v>
       </c>
       <c r="AF10" t="n">
         <v>9.120774102928292e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.9837962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>274531.8565041361</v>
+        <v>384547.3998106763</v>
       </c>
     </row>
   </sheetData>
@@ -16285,28 +16285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>539.2548665822078</v>
+        <v>699.0821613353747</v>
       </c>
       <c r="AB2" t="n">
-        <v>737.8322987034599</v>
+        <v>956.515054467347</v>
       </c>
       <c r="AC2" t="n">
-        <v>667.4146196693362</v>
+        <v>865.2266001462932</v>
       </c>
       <c r="AD2" t="n">
-        <v>539254.8665822078</v>
+        <v>699082.1613353747</v>
       </c>
       <c r="AE2" t="n">
-        <v>737832.2987034599</v>
+        <v>956515.054467347</v>
       </c>
       <c r="AF2" t="n">
         <v>4.418886701172813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.57870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>667414.6196693361</v>
+        <v>865226.6001462932</v>
       </c>
     </row>
     <row r="3">
@@ -16391,28 +16391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.122899014557</v>
+        <v>552.9088501777793</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.9354172965812</v>
+        <v>756.5142814301639</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.6826336107562</v>
+        <v>684.313620184931</v>
       </c>
       <c r="AD3" t="n">
-        <v>423122.899014557</v>
+        <v>552908.8501777793</v>
       </c>
       <c r="AE3" t="n">
-        <v>578935.4172965812</v>
+        <v>756514.2814301639</v>
       </c>
       <c r="AF3" t="n">
         <v>5.38110788933204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>523682.6336107561</v>
+        <v>684313.620184931</v>
       </c>
     </row>
     <row r="4">
@@ -16497,28 +16497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.629386444279</v>
+        <v>472.4668205047886</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.1655246125057</v>
+        <v>646.4499475796944</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.8121833161748</v>
+        <v>584.7536718808874</v>
       </c>
       <c r="AD4" t="n">
-        <v>362629.386444279</v>
+        <v>472466.8205047887</v>
       </c>
       <c r="AE4" t="n">
-        <v>496165.5246125057</v>
+        <v>646449.9475796943</v>
       </c>
       <c r="AF4" t="n">
         <v>6.069592733170827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.25694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>448812.1833161748</v>
+        <v>584753.6718808874</v>
       </c>
     </row>
     <row r="5">
@@ -16603,28 +16603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.9389827467402</v>
+        <v>434.8095711961736</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.5958514902754</v>
+        <v>594.9256377550578</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.1642474182394</v>
+        <v>538.1467698710911</v>
       </c>
       <c r="AD5" t="n">
-        <v>324938.9827467402</v>
+        <v>434809.5711961736</v>
       </c>
       <c r="AE5" t="n">
-        <v>444595.8514902754</v>
+        <v>594925.6377550578</v>
       </c>
       <c r="AF5" t="n">
         <v>6.587648978839958e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.50925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>402164.2474182394</v>
+        <v>538146.7698710911</v>
       </c>
     </row>
     <row r="6">
@@ -16709,28 +16709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.3665186361299</v>
+        <v>402.178446017112</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.7112102673037</v>
+        <v>550.2782927014237</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.2271930067219</v>
+        <v>497.7605047664335</v>
       </c>
       <c r="AD6" t="n">
-        <v>302366.5186361299</v>
+        <v>402178.4460171121</v>
       </c>
       <c r="AE6" t="n">
-        <v>413711.2102673037</v>
+        <v>550278.2927014236</v>
       </c>
       <c r="AF6" t="n">
         <v>7.027494840417535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.22453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>374227.1930067219</v>
+        <v>497760.5047664335</v>
       </c>
     </row>
     <row r="7">
@@ -16815,28 +16815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>284.2576499810385</v>
+        <v>374.1124015200547</v>
       </c>
       <c r="AB7" t="n">
-        <v>388.9338572665067</v>
+        <v>511.8770924340535</v>
       </c>
       <c r="AC7" t="n">
-        <v>351.8145558010876</v>
+        <v>463.024261156158</v>
       </c>
       <c r="AD7" t="n">
-        <v>284257.6499810385</v>
+        <v>374112.4015200547</v>
       </c>
       <c r="AE7" t="n">
-        <v>388933.8572665066</v>
+        <v>511877.0924340535</v>
       </c>
       <c r="AF7" t="n">
         <v>7.349091270525344e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>351814.5558010876</v>
+        <v>463024.2611561581</v>
       </c>
     </row>
     <row r="8">
@@ -16921,28 +16921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>267.1865496461466</v>
+        <v>357.1086209928671</v>
       </c>
       <c r="AB8" t="n">
-        <v>365.5764246645136</v>
+        <v>488.6117697629019</v>
       </c>
       <c r="AC8" t="n">
-        <v>330.6863237842661</v>
+        <v>441.9793482276556</v>
       </c>
       <c r="AD8" t="n">
-        <v>267186.5496461466</v>
+        <v>357108.6209928672</v>
       </c>
       <c r="AE8" t="n">
-        <v>365576.4246645136</v>
+        <v>488611.7697629019</v>
       </c>
       <c r="AF8" t="n">
         <v>7.642905504493167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.67361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>330686.3237842661</v>
+        <v>441979.3482276556</v>
       </c>
     </row>
     <row r="9">
@@ -17027,28 +17027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.2845699447051</v>
+        <v>341.1821456417553</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.5010756600333</v>
+        <v>466.820463561007</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.38167475495</v>
+        <v>422.2677737053793</v>
       </c>
       <c r="AD9" t="n">
-        <v>261284.5699447051</v>
+        <v>341182.1456417553</v>
       </c>
       <c r="AE9" t="n">
-        <v>357501.0756600333</v>
+        <v>466820.463561007</v>
       </c>
       <c r="AF9" t="n">
         <v>7.905202120991259e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>323381.67475495</v>
+        <v>422267.7737053793</v>
       </c>
     </row>
     <row r="10">
@@ -17133,28 +17133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>247.0161036143298</v>
+        <v>336.9040095422727</v>
       </c>
       <c r="AB10" t="n">
-        <v>337.9783305463465</v>
+        <v>460.9669290116506</v>
       </c>
       <c r="AC10" t="n">
-        <v>305.72215303467</v>
+        <v>416.9728922779261</v>
       </c>
       <c r="AD10" t="n">
-        <v>247016.1036143298</v>
+        <v>336904.0095422727</v>
       </c>
       <c r="AE10" t="n">
-        <v>337978.3305463465</v>
+        <v>460966.9290116506</v>
       </c>
       <c r="AF10" t="n">
         <v>8.092206651311663e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>305722.15303467</v>
+        <v>416972.8922779261</v>
       </c>
     </row>
     <row r="11">
@@ -17239,28 +17239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>242.6991982263081</v>
+        <v>322.5626085045806</v>
       </c>
       <c r="AB11" t="n">
-        <v>332.0717501460336</v>
+        <v>441.3443914139201</v>
       </c>
       <c r="AC11" t="n">
-        <v>300.3792883778234</v>
+        <v>399.2231021281185</v>
       </c>
       <c r="AD11" t="n">
-        <v>242699.198226308</v>
+        <v>322562.6085045806</v>
       </c>
       <c r="AE11" t="n">
-        <v>332071.7501460336</v>
+        <v>441344.39141392</v>
       </c>
       <c r="AF11" t="n">
         <v>8.289483590288868e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.2962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>300379.2883778234</v>
+        <v>399223.1021281185</v>
       </c>
     </row>
     <row r="12">
@@ -17345,28 +17345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>229.0057252486584</v>
+        <v>318.8594657578202</v>
       </c>
       <c r="AB12" t="n">
-        <v>313.3357363046311</v>
+        <v>436.2775881366748</v>
       </c>
       <c r="AC12" t="n">
-        <v>283.4314134012778</v>
+        <v>394.6398674443504</v>
       </c>
       <c r="AD12" t="n">
-        <v>229005.7252486584</v>
+        <v>318859.4657578202</v>
       </c>
       <c r="AE12" t="n">
-        <v>313335.7363046311</v>
+        <v>436277.5881366748</v>
       </c>
       <c r="AF12" t="n">
         <v>8.465632052369696e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.96064814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>283431.4134012779</v>
+        <v>394639.8674443504</v>
       </c>
     </row>
     <row r="13">
@@ -17451,28 +17451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>228.8091472873652</v>
+        <v>318.662887796527</v>
       </c>
       <c r="AB13" t="n">
-        <v>313.0667696655823</v>
+        <v>436.0086214976258</v>
       </c>
       <c r="AC13" t="n">
-        <v>283.1881165607628</v>
+        <v>394.3965706038352</v>
       </c>
       <c r="AD13" t="n">
-        <v>228809.1472873652</v>
+        <v>318662.887796527</v>
       </c>
       <c r="AE13" t="n">
-        <v>313066.7696655823</v>
+        <v>436008.6214976258</v>
       </c>
       <c r="AF13" t="n">
         <v>8.476604852525822e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>283188.1165607627</v>
+        <v>394396.5706038352</v>
       </c>
     </row>
     <row r="14">
@@ -17557,28 +17557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>228.8751801238897</v>
+        <v>318.7289206330516</v>
       </c>
       <c r="AB14" t="n">
-        <v>313.1571187056784</v>
+        <v>436.0989705377219</v>
       </c>
       <c r="AC14" t="n">
-        <v>283.2698428152777</v>
+        <v>394.4782968583503</v>
       </c>
       <c r="AD14" t="n">
-        <v>228875.1801238898</v>
+        <v>318728.9206330516</v>
       </c>
       <c r="AE14" t="n">
-        <v>313157.1187056784</v>
+        <v>436098.9705377219</v>
       </c>
       <c r="AF14" t="n">
         <v>8.47625465677616e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH14" t="n">
-        <v>283269.8428152777</v>
+        <v>394478.2968583503</v>
       </c>
     </row>
   </sheetData>
@@ -17854,28 +17854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.3377559786342</v>
+        <v>305.5995846121935</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.1075942286887</v>
+        <v>418.1348337685583</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.4657466392452</v>
+        <v>378.2286320896113</v>
       </c>
       <c r="AD2" t="n">
-        <v>219337.7559786342</v>
+        <v>305599.5846121935</v>
       </c>
       <c r="AE2" t="n">
-        <v>300107.5942286887</v>
+        <v>418134.8337685583</v>
       </c>
       <c r="AF2" t="n">
         <v>1.104928540831417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.89814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>271465.7466392452</v>
+        <v>378228.6320896113</v>
       </c>
     </row>
     <row r="3">
@@ -17960,28 +17960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.9145253212997</v>
+        <v>292.5547557823424</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.4237790210481</v>
+        <v>400.2863234663245</v>
       </c>
       <c r="AC3" t="n">
-        <v>267.2289481812444</v>
+        <v>362.0835585600812</v>
       </c>
       <c r="AD3" t="n">
-        <v>215914.5253212997</v>
+        <v>292554.7557823424</v>
       </c>
       <c r="AE3" t="n">
-        <v>295423.7790210481</v>
+        <v>400286.3234663245</v>
       </c>
       <c r="AF3" t="n">
         <v>1.136535266657723e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.43518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>267228.9481812444</v>
+        <v>362083.5585600812</v>
       </c>
     </row>
   </sheetData>
@@ -18257,28 +18257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.2992525761262</v>
+        <v>596.1974521294553</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.6970119938272</v>
+        <v>815.743656378781</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.9813673404074</v>
+        <v>737.8902267174018</v>
       </c>
       <c r="AD2" t="n">
-        <v>457299.2525761261</v>
+        <v>596197.4521294553</v>
       </c>
       <c r="AE2" t="n">
-        <v>625697.0119938272</v>
+        <v>815743.656378781</v>
       </c>
       <c r="AF2" t="n">
         <v>5.203301211742901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>565981.3673404073</v>
+        <v>737890.2267174018</v>
       </c>
     </row>
     <row r="3">
@@ -18363,28 +18363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.1393364445815</v>
+        <v>480.2477579799273</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.1267724665531</v>
+        <v>657.0961695039135</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.9680068136253</v>
+        <v>594.3838333267254</v>
       </c>
       <c r="AD3" t="n">
-        <v>361139.3364445815</v>
+        <v>480247.7579799272</v>
       </c>
       <c r="AE3" t="n">
-        <v>494126.7724665531</v>
+        <v>657096.1695039135</v>
       </c>
       <c r="AF3" t="n">
         <v>6.177380083027356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.85879629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>446968.0068136253</v>
+        <v>594383.8333267254</v>
       </c>
     </row>
     <row r="4">
@@ -18469,28 +18469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.7083643303749</v>
+        <v>427.8882369528767</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.0708444975195</v>
+        <v>585.4555628956626</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.4528551279496</v>
+        <v>529.5805056649431</v>
       </c>
       <c r="AD4" t="n">
-        <v>318708.3643303749</v>
+        <v>427888.2369528767</v>
       </c>
       <c r="AE4" t="n">
-        <v>436070.8444975195</v>
+        <v>585455.5628956626</v>
       </c>
       <c r="AF4" t="n">
         <v>6.867591511171054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>394452.8551279497</v>
+        <v>529580.505664943</v>
       </c>
     </row>
     <row r="5">
@@ -18575,28 +18575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.8317883315458</v>
+        <v>384.1555741582171</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.4018598557309</v>
+        <v>525.6186043110933</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.9017525291654</v>
+        <v>475.4543024259863</v>
       </c>
       <c r="AD5" t="n">
-        <v>294831.7883315458</v>
+        <v>384155.5741582171</v>
       </c>
       <c r="AE5" t="n">
-        <v>403401.8598557309</v>
+        <v>525618.6043110933</v>
       </c>
       <c r="AF5" t="n">
         <v>7.397753912498824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.08564814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>364901.7525291654</v>
+        <v>475454.3024259863</v>
       </c>
     </row>
     <row r="6">
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.2366645630952</v>
+        <v>363.4538228539724</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.5402617541377</v>
+        <v>497.2935548798156</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.0353665972663</v>
+        <v>449.8325559579731</v>
       </c>
       <c r="AD6" t="n">
-        <v>264236.6645630953</v>
+        <v>363453.8228539724</v>
       </c>
       <c r="AE6" t="n">
-        <v>361540.2617541377</v>
+        <v>497293.5548798156</v>
       </c>
       <c r="AF6" t="n">
         <v>7.862286453745059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.96296296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>327035.3665972663</v>
+        <v>449832.5559579731</v>
       </c>
     </row>
     <row r="7">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>257.8121141189543</v>
+        <v>347.0675691080672</v>
       </c>
       <c r="AB7" t="n">
-        <v>352.7499084051352</v>
+        <v>474.8731595941733</v>
       </c>
       <c r="AC7" t="n">
-        <v>319.0839522346604</v>
+        <v>429.5519317311701</v>
       </c>
       <c r="AD7" t="n">
-        <v>257812.1141189543</v>
+        <v>347067.5691080672</v>
       </c>
       <c r="AE7" t="n">
-        <v>352749.9084051352</v>
+        <v>474873.1595941733</v>
       </c>
       <c r="AF7" t="n">
         <v>8.178114906813995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.26851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>319083.9522346604</v>
+        <v>429551.9317311701</v>
       </c>
     </row>
     <row r="8">
@@ -18893,28 +18893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>242.2030060836217</v>
+        <v>331.5257808804387</v>
       </c>
       <c r="AB8" t="n">
-        <v>331.3928381659579</v>
+        <v>453.6081992858266</v>
       </c>
       <c r="AC8" t="n">
-        <v>299.7651708042671</v>
+        <v>410.3164693890927</v>
       </c>
       <c r="AD8" t="n">
-        <v>242203.0060836217</v>
+        <v>331525.7808804387</v>
       </c>
       <c r="AE8" t="n">
-        <v>331392.8381659579</v>
+        <v>453608.1992858266</v>
       </c>
       <c r="AF8" t="n">
         <v>8.451857297191242e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>299765.1708042671</v>
+        <v>410316.4693890927</v>
       </c>
     </row>
     <row r="9">
@@ -18999,28 +18999,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>237.3069366392833</v>
+        <v>316.6680081343327</v>
       </c>
       <c r="AB9" t="n">
-        <v>324.6938199528781</v>
+        <v>433.2791391359322</v>
       </c>
       <c r="AC9" t="n">
-        <v>293.7054974873103</v>
+        <v>391.9275862078891</v>
       </c>
       <c r="AD9" t="n">
-        <v>237306.9366392833</v>
+        <v>316668.0081343327</v>
       </c>
       <c r="AE9" t="n">
-        <v>324693.8199528781</v>
+        <v>433279.1391359322</v>
       </c>
       <c r="AF9" t="n">
         <v>8.690832940127527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>293705.4974873103</v>
+        <v>391927.5862078891</v>
       </c>
     </row>
     <row r="10">
@@ -19105,28 +19105,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>235.2774552159106</v>
+        <v>314.63852671096</v>
       </c>
       <c r="AB10" t="n">
-        <v>321.9169939350196</v>
+        <v>430.5023131180723</v>
       </c>
       <c r="AC10" t="n">
-        <v>291.1936878472956</v>
+        <v>389.415776567874</v>
       </c>
       <c r="AD10" t="n">
-        <v>235277.4552159106</v>
+        <v>314638.52671096</v>
       </c>
       <c r="AE10" t="n">
-        <v>321916.9939350196</v>
+        <v>430502.3131180723</v>
       </c>
       <c r="AF10" t="n">
         <v>8.804282326513819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>291193.6878472955</v>
+        <v>389415.776567874</v>
       </c>
     </row>
     <row r="11">
@@ -19211,28 +19211,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>235.2287688850378</v>
+        <v>314.5898403800873</v>
       </c>
       <c r="AB11" t="n">
-        <v>321.8503791492301</v>
+        <v>430.4356983322828</v>
       </c>
       <c r="AC11" t="n">
-        <v>291.1334306831674</v>
+        <v>389.3555194037458</v>
       </c>
       <c r="AD11" t="n">
-        <v>235228.7688850378</v>
+        <v>314589.8403800873</v>
       </c>
       <c r="AE11" t="n">
-        <v>321850.3791492301</v>
+        <v>430435.6983322828</v>
       </c>
       <c r="AF11" t="n">
         <v>8.804526303688845e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>291133.4306831674</v>
+        <v>389355.5194037458</v>
       </c>
     </row>
   </sheetData>
@@ -19508,28 +19508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.2713330869397</v>
+        <v>340.0638271801079</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.537011472015</v>
+        <v>465.2903309050525</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.4640054649796</v>
+        <v>420.8836747625544</v>
       </c>
       <c r="AD2" t="n">
-        <v>253271.3330869397</v>
+        <v>340063.8271801079</v>
       </c>
       <c r="AE2" t="n">
-        <v>346537.011472015</v>
+        <v>465290.3309050525</v>
       </c>
       <c r="AF2" t="n">
         <v>9.697638933923773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.17129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>313464.0054649796</v>
+        <v>420883.6747625545</v>
       </c>
     </row>
     <row r="3">
@@ -19614,28 +19614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.0586847326881</v>
+        <v>297.2000883924259</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.0940007551166</v>
+        <v>406.6422724810518</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.3580119112214</v>
+        <v>367.8329047214734</v>
       </c>
       <c r="AD3" t="n">
-        <v>220058.6847326881</v>
+        <v>297200.0883924259</v>
       </c>
       <c r="AE3" t="n">
-        <v>301094.0007551166</v>
+        <v>406642.2724810518</v>
       </c>
       <c r="AF3" t="n">
         <v>1.073291877111737e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>272358.0119112214</v>
+        <v>367832.9047214733</v>
       </c>
     </row>
     <row r="4">
@@ -19720,28 +19720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.8228554075172</v>
+        <v>295.9642590672551</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.4030845514769</v>
+        <v>404.9513562774111</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.8284743768406</v>
+        <v>366.3033671870924</v>
       </c>
       <c r="AD4" t="n">
-        <v>218822.8554075172</v>
+        <v>295964.2590672551</v>
       </c>
       <c r="AE4" t="n">
-        <v>299403.0845514769</v>
+        <v>404951.3562774111</v>
       </c>
       <c r="AF4" t="n">
         <v>1.082642595264677e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>270828.4743768406</v>
+        <v>366303.3671870924</v>
       </c>
     </row>
   </sheetData>
@@ -20017,28 +20017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.4563818571108</v>
+        <v>414.0515772358991</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.9895827271446</v>
+        <v>566.5236346405491</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.6656646563613</v>
+        <v>512.4554140713693</v>
       </c>
       <c r="AD2" t="n">
-        <v>316456.3818571108</v>
+        <v>414051.5772358991</v>
       </c>
       <c r="AE2" t="n">
-        <v>432989.5827271446</v>
+        <v>566523.6346405491</v>
       </c>
       <c r="AF2" t="n">
         <v>7.61233721776418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.05324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>391665.6646563613</v>
+        <v>512455.4140713693</v>
       </c>
     </row>
     <row r="3">
@@ -20123,28 +20123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.2711261631648</v>
+        <v>362.8653105120958</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.9556577525776</v>
+        <v>496.4883263303279</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.3156791881359</v>
+        <v>449.1041772911032</v>
       </c>
       <c r="AD3" t="n">
-        <v>265271.1261631647</v>
+        <v>362865.3105120958</v>
       </c>
       <c r="AE3" t="n">
-        <v>362955.6577525776</v>
+        <v>496488.326330328</v>
       </c>
       <c r="AF3" t="n">
         <v>8.64663269941253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.5300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>328315.6791881359</v>
+        <v>449104.1772911032</v>
       </c>
     </row>
     <row r="4">
@@ -20229,28 +20229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>243.6189150198883</v>
+        <v>321.6884404451372</v>
       </c>
       <c r="AB4" t="n">
-        <v>333.3301472380507</v>
+        <v>440.1483161094168</v>
       </c>
       <c r="AC4" t="n">
-        <v>301.5175858175503</v>
+        <v>398.1411785719748</v>
       </c>
       <c r="AD4" t="n">
-        <v>243618.9150198883</v>
+        <v>321688.4404451373</v>
       </c>
       <c r="AE4" t="n">
-        <v>333330.1472380507</v>
+        <v>440148.3161094168</v>
       </c>
       <c r="AF4" t="n">
         <v>9.352683690766645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.12962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>301517.5858175503</v>
+        <v>398141.1785719748</v>
       </c>
     </row>
     <row r="5">
@@ -20335,28 +20335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.7032222230056</v>
+        <v>303.7385822294735</v>
       </c>
       <c r="AB5" t="n">
-        <v>308.8171059687843</v>
+        <v>415.58852820689</v>
       </c>
       <c r="AC5" t="n">
-        <v>279.3440348027455</v>
+        <v>375.9253423569864</v>
       </c>
       <c r="AD5" t="n">
-        <v>225703.2222230055</v>
+        <v>303738.5822294735</v>
       </c>
       <c r="AE5" t="n">
-        <v>308817.1059687843</v>
+        <v>415588.52820689</v>
       </c>
       <c r="AF5" t="n">
         <v>9.886375175407844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.20370370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>279344.0348027454</v>
+        <v>375925.3423569864</v>
       </c>
     </row>
     <row r="6">
@@ -20441,28 +20441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.183990131967</v>
+        <v>302.2193501384349</v>
       </c>
       <c r="AB6" t="n">
-        <v>306.7384255980368</v>
+        <v>413.5098478361414</v>
       </c>
       <c r="AC6" t="n">
-        <v>277.4637407691352</v>
+        <v>374.0450483233759</v>
       </c>
       <c r="AD6" t="n">
-        <v>224183.990131967</v>
+        <v>302219.3501384349</v>
       </c>
       <c r="AE6" t="n">
-        <v>306738.4255980368</v>
+        <v>413509.8478361414</v>
       </c>
       <c r="AF6" t="n">
         <v>9.993528796448645e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.03009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>277463.7407691352</v>
+        <v>374045.0483233759</v>
       </c>
     </row>
   </sheetData>
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.2377688162791</v>
+        <v>298.8812813003556</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.7613226807181</v>
+        <v>408.9425547866776</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.9160315337446</v>
+        <v>369.9136513123167</v>
       </c>
       <c r="AD2" t="n">
-        <v>213237.7688162791</v>
+        <v>298881.2813003556</v>
       </c>
       <c r="AE2" t="n">
-        <v>291761.3226807181</v>
+        <v>408942.5547866776</v>
       </c>
       <c r="AF2" t="n">
         <v>1.194927787808918e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>263916.0315337446</v>
+        <v>369913.6513123167</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.7362313762962</v>
+        <v>304.3446316941203</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.6528058472635</v>
+        <v>416.4177518214351</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.9589240261527</v>
+        <v>376.675426033582</v>
       </c>
       <c r="AD2" t="n">
-        <v>219736.2313762962</v>
+        <v>304344.6316941202</v>
       </c>
       <c r="AE2" t="n">
-        <v>300652.8058472635</v>
+        <v>416417.7518214351</v>
       </c>
       <c r="AF2" t="n">
         <v>1.29291490550871e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>271958.9240261527</v>
+        <v>376675.426033582</v>
       </c>
     </row>
   </sheetData>
@@ -35577,28 +35577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.4042411272478</v>
+        <v>562.1235357362248</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.0028031559666</v>
+        <v>769.1222207344647</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.4074479074219</v>
+        <v>695.7182754573832</v>
       </c>
       <c r="AD2" t="n">
-        <v>433404.2411272478</v>
+        <v>562123.5357362247</v>
       </c>
       <c r="AE2" t="n">
-        <v>593002.8031559666</v>
+        <v>769122.2207344647</v>
       </c>
       <c r="AF2" t="n">
         <v>5.482957024102464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.15740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>536407.4479074219</v>
+        <v>695718.2754573832</v>
       </c>
     </row>
     <row r="3">
@@ -35683,28 +35683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.4903241459944</v>
+        <v>460.3962934600972</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.9245681552467</v>
+        <v>629.9345199630773</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.0258023523799</v>
+        <v>569.814453496452</v>
       </c>
       <c r="AD3" t="n">
-        <v>351490.3241459943</v>
+        <v>460396.2934600972</v>
       </c>
       <c r="AE3" t="n">
-        <v>480924.5681552467</v>
+        <v>629934.5199630773</v>
       </c>
       <c r="AF3" t="n">
         <v>6.480376569998276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.12962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>435025.8023523799</v>
+        <v>569814.453496452</v>
       </c>
     </row>
     <row r="4">
@@ -35789,28 +35789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.9430612987947</v>
+        <v>409.8480195830405</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.7635731398561</v>
+        <v>560.7721416120324</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.4654356331919</v>
+        <v>507.2528354652233</v>
       </c>
       <c r="AD4" t="n">
-        <v>300943.0612987947</v>
+        <v>409848.0195830404</v>
       </c>
       <c r="AE4" t="n">
-        <v>411763.5731398561</v>
+        <v>560772.1416120324</v>
       </c>
       <c r="AF4" t="n">
         <v>7.17985916406338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.97685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>372465.435633192</v>
+        <v>507252.8354652233</v>
       </c>
     </row>
     <row r="5">
@@ -35895,28 +35895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>278.5181449854065</v>
+        <v>377.550606040996</v>
       </c>
       <c r="AB5" t="n">
-        <v>381.0808133223931</v>
+        <v>516.5813955424835</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.7109953491838</v>
+        <v>467.2795921784505</v>
       </c>
       <c r="AD5" t="n">
-        <v>278518.1449854065</v>
+        <v>377550.606040996</v>
       </c>
       <c r="AE5" t="n">
-        <v>381080.8133223931</v>
+        <v>516581.3955424835</v>
       </c>
       <c r="AF5" t="n">
         <v>7.700505226725943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.62268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>344710.9953491838</v>
+        <v>467279.5921784504</v>
       </c>
     </row>
     <row r="6">
@@ -36001,28 +36001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.6516053275871</v>
+        <v>348.8115691545203</v>
       </c>
       <c r="AB6" t="n">
-        <v>355.266781429578</v>
+        <v>477.2593773975825</v>
       </c>
       <c r="AC6" t="n">
-        <v>321.3606184299977</v>
+        <v>431.7104122564995</v>
       </c>
       <c r="AD6" t="n">
-        <v>259651.6053275871</v>
+        <v>348811.5691545203</v>
       </c>
       <c r="AE6" t="n">
-        <v>355266.781429578</v>
+        <v>477259.3773975825</v>
       </c>
       <c r="AF6" t="n">
         <v>8.124111092515192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.66203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>321360.6184299976</v>
+        <v>431710.4122564995</v>
       </c>
     </row>
     <row r="7">
@@ -36107,28 +36107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.6904090938854</v>
+        <v>331.8162075020409</v>
       </c>
       <c r="AB7" t="n">
-        <v>332.0597244673038</v>
+        <v>454.0055738022209</v>
       </c>
       <c r="AC7" t="n">
-        <v>300.3684104129935</v>
+        <v>410.675919039361</v>
       </c>
       <c r="AD7" t="n">
-        <v>242690.4090938854</v>
+        <v>331816.2075020409</v>
       </c>
       <c r="AE7" t="n">
-        <v>332059.7244673038</v>
+        <v>454005.5738022209</v>
       </c>
       <c r="AF7" t="n">
         <v>8.47310878650657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>300368.4104129935</v>
+        <v>410675.919039361</v>
       </c>
     </row>
     <row r="8">
@@ -36213,28 +36213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>237.243871312477</v>
+        <v>316.4298526842717</v>
       </c>
       <c r="AB8" t="n">
-        <v>324.607531190496</v>
+        <v>432.9532843424818</v>
       </c>
       <c r="AC8" t="n">
-        <v>293.6274440033029</v>
+        <v>391.6328305385857</v>
       </c>
       <c r="AD8" t="n">
-        <v>237243.871312477</v>
+        <v>316429.8526842718</v>
       </c>
       <c r="AE8" t="n">
-        <v>324607.5311904961</v>
+        <v>432953.2843424818</v>
       </c>
       <c r="AF8" t="n">
         <v>8.745515367256944e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.40046296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>293627.4440033029</v>
+        <v>391632.8305385857</v>
       </c>
     </row>
     <row r="9">
@@ -36319,28 +36319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>234.0515590682521</v>
+        <v>313.2375404400468</v>
       </c>
       <c r="AB9" t="n">
-        <v>320.2396687430731</v>
+        <v>428.5854218950566</v>
       </c>
       <c r="AC9" t="n">
-        <v>289.6764442175271</v>
+        <v>387.6818307528093</v>
       </c>
       <c r="AD9" t="n">
-        <v>234051.5590682521</v>
+        <v>313237.5404400468</v>
       </c>
       <c r="AE9" t="n">
-        <v>320239.6687430731</v>
+        <v>428585.4218950566</v>
       </c>
       <c r="AF9" t="n">
         <v>8.91914667737126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>289676.4442175272</v>
+        <v>387681.8307528093</v>
       </c>
     </row>
     <row r="10">
@@ -36425,28 +36425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>233.7250906622926</v>
+        <v>312.9110720340873</v>
       </c>
       <c r="AB10" t="n">
-        <v>319.79298026727</v>
+        <v>428.1387334192532</v>
       </c>
       <c r="AC10" t="n">
-        <v>289.2723870629233</v>
+        <v>387.2777735982053</v>
       </c>
       <c r="AD10" t="n">
-        <v>233725.0906622926</v>
+        <v>312911.0720340873</v>
       </c>
       <c r="AE10" t="n">
-        <v>319792.9802672699</v>
+        <v>428138.7334192533</v>
       </c>
       <c r="AF10" t="n">
         <v>8.950749806621191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.03009259259259</v>
       </c>
       <c r="AH10" t="n">
-        <v>289272.3870629233</v>
+        <v>387277.7735982053</v>
       </c>
     </row>
     <row r="11">
@@ -36531,28 +36531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>233.789718607351</v>
+        <v>312.9756999791456</v>
       </c>
       <c r="AB11" t="n">
-        <v>319.8814070728825</v>
+        <v>428.2271602248659</v>
       </c>
       <c r="AC11" t="n">
-        <v>289.352374538316</v>
+        <v>387.3577610735981</v>
       </c>
       <c r="AD11" t="n">
-        <v>233789.718607351</v>
+        <v>312975.6999791457</v>
       </c>
       <c r="AE11" t="n">
-        <v>319881.4070728825</v>
+        <v>428227.1602248659</v>
       </c>
       <c r="AF11" t="n">
         <v>8.950130137420213e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.03009259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>289352.374538316</v>
+        <v>387357.7610735981</v>
       </c>
     </row>
   </sheetData>
@@ -36828,28 +36828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.1892093140974</v>
+        <v>321.2147180718424</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.2185431808245</v>
+        <v>439.5001482591185</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.4208436212166</v>
+        <v>397.5548709515998</v>
       </c>
       <c r="AD2" t="n">
-        <v>228189.2093140974</v>
+        <v>321214.7180718424</v>
       </c>
       <c r="AE2" t="n">
-        <v>312218.5431808245</v>
+        <v>439500.1482591185</v>
       </c>
       <c r="AF2" t="n">
         <v>1.362255704068388e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.72685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>282420.8436212166</v>
+        <v>397554.8709515998</v>
       </c>
     </row>
   </sheetData>
@@ -37125,28 +37125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.4534155695322</v>
+        <v>388.8660009957996</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.36049179682</v>
+        <v>532.0636181196395</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.8685431060514</v>
+        <v>481.2842131622785</v>
       </c>
       <c r="AD2" t="n">
-        <v>279453.4155695323</v>
+        <v>388866.0009957996</v>
       </c>
       <c r="AE2" t="n">
-        <v>382360.49179682</v>
+        <v>532063.6181196395</v>
       </c>
       <c r="AF2" t="n">
         <v>1.420706150320145e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>345868.5431060515</v>
+        <v>481284.2131622785</v>
       </c>
     </row>
   </sheetData>
@@ -37422,28 +37422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.4708665096659</v>
+        <v>323.0547832396236</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.5498719167253</v>
+        <v>442.0178065996228</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.6707262461864</v>
+        <v>399.8322475136419</v>
       </c>
       <c r="AD2" t="n">
-        <v>236470.8665096659</v>
+        <v>323054.7832396236</v>
       </c>
       <c r="AE2" t="n">
-        <v>323549.8719167253</v>
+        <v>442017.8065996228</v>
       </c>
       <c r="AF2" t="n">
         <v>1.031799923204844e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>292670.7262461864</v>
+        <v>399832.2475136419</v>
       </c>
     </row>
     <row r="3">
@@ -37528,28 +37528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.076245678451</v>
+        <v>293.9724074084868</v>
       </c>
       <c r="AB3" t="n">
-        <v>297.0132960651866</v>
+        <v>402.226016963591</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.666763949592</v>
+        <v>363.8381304323455</v>
       </c>
       <c r="AD3" t="n">
-        <v>217076.245678451</v>
+        <v>293972.4074084868</v>
       </c>
       <c r="AE3" t="n">
-        <v>297013.2960651866</v>
+        <v>402226.016963591</v>
       </c>
       <c r="AF3" t="n">
         <v>1.111707575243245e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.30787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>268666.763949592</v>
+        <v>363838.1304323455</v>
       </c>
     </row>
     <row r="4">
@@ -37634,28 +37634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.1914401395152</v>
+        <v>294.087601869551</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.1709102088355</v>
+        <v>402.38363110724</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.809335620584</v>
+        <v>363.9807021033374</v>
       </c>
       <c r="AD4" t="n">
-        <v>217191.4401395152</v>
+        <v>294087.6018695509</v>
       </c>
       <c r="AE4" t="n">
-        <v>297170.9102088355</v>
+        <v>402383.63110724</v>
       </c>
       <c r="AF4" t="n">
         <v>1.110908968491539e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.31944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>268809.335620584</v>
+        <v>363980.7021033374</v>
       </c>
     </row>
   </sheetData>
@@ -37931,28 +37931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.9161254637237</v>
+        <v>395.2120935856185</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.6219859913276</v>
+        <v>540.7466219708754</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.719115749365</v>
+        <v>489.1385233126248</v>
       </c>
       <c r="AD2" t="n">
-        <v>297916.1254637237</v>
+        <v>395212.0935856185</v>
       </c>
       <c r="AE2" t="n">
-        <v>407621.9859913276</v>
+        <v>540746.6219708754</v>
       </c>
       <c r="AF2" t="n">
         <v>8.052695213862639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.33564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>368719.115749365</v>
+        <v>489138.5233126248</v>
       </c>
     </row>
     <row r="3">
@@ -38037,28 +38037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.1607940818131</v>
+        <v>346.7204334107479</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.595231830046</v>
+        <v>474.3981932185551</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.7531605817193</v>
+        <v>429.1222954798213</v>
       </c>
       <c r="AD3" t="n">
-        <v>259160.7940818131</v>
+        <v>346720.433410748</v>
       </c>
       <c r="AE3" t="n">
-        <v>354595.231830046</v>
+        <v>474398.1932185551</v>
       </c>
       <c r="AF3" t="n">
         <v>9.075270915131005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.04398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>320753.1605817192</v>
+        <v>429122.2954798213</v>
       </c>
     </row>
     <row r="4">
@@ -38143,28 +38143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.7212306431557</v>
+        <v>315.314024361017</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.5782341174806</v>
+        <v>431.4265588037333</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.8416447561986</v>
+        <v>390.2518135424825</v>
       </c>
       <c r="AD4" t="n">
-        <v>227721.2306431557</v>
+        <v>315314.024361017</v>
       </c>
       <c r="AE4" t="n">
-        <v>311578.2341174806</v>
+        <v>431426.5588037333</v>
       </c>
       <c r="AF4" t="n">
         <v>9.836224577981603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>281841.6447561986</v>
+        <v>390251.8135424824</v>
       </c>
     </row>
     <row r="5">
@@ -38249,28 +38249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.0919986847677</v>
+        <v>300.9153092207455</v>
       </c>
       <c r="AB5" t="n">
-        <v>305.244314724717</v>
+        <v>411.7256015223338</v>
       </c>
       <c r="AC5" t="n">
-        <v>276.1122257405667</v>
+        <v>372.4310879735526</v>
       </c>
       <c r="AD5" t="n">
-        <v>223091.9986847677</v>
+        <v>300915.3092207455</v>
       </c>
       <c r="AE5" t="n">
-        <v>305244.314724717</v>
+        <v>411725.6015223338</v>
       </c>
       <c r="AF5" t="n">
         <v>1.015967940752353e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>276112.2257405667</v>
+        <v>372431.0879735526</v>
       </c>
     </row>
     <row r="6">
@@ -38355,28 +38355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.5546393463692</v>
+        <v>300.3779498823469</v>
       </c>
       <c r="AB6" t="n">
-        <v>304.5090759712996</v>
+        <v>410.990362768916</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.4471571418612</v>
+        <v>371.766019374847</v>
       </c>
       <c r="AD6" t="n">
-        <v>222554.6393463692</v>
+        <v>300377.9498823469</v>
       </c>
       <c r="AE6" t="n">
-        <v>304509.0759712996</v>
+        <v>410990.3627689161</v>
       </c>
       <c r="AF6" t="n">
         <v>1.020835327513614e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>275447.1571418612</v>
+        <v>371766.0193748469</v>
       </c>
     </row>
   </sheetData>
@@ -38652,28 +38652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.570037002385</v>
+        <v>484.5207654590347</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.5572965553392</v>
+        <v>662.9426868486138</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.6893721121838</v>
+        <v>599.6723672616861</v>
       </c>
       <c r="AD2" t="n">
-        <v>366570.037002385</v>
+        <v>484520.7654590347</v>
       </c>
       <c r="AE2" t="n">
-        <v>501557.2965553392</v>
+        <v>662942.6868486138</v>
       </c>
       <c r="AF2" t="n">
         <v>6.44251954597243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.44907407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>453689.3721121838</v>
+        <v>599672.3672616861</v>
       </c>
     </row>
     <row r="3">
@@ -38758,28 +38758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.0803192630049</v>
+        <v>405.3898441912463</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.1608402432008</v>
+        <v>554.6722693601625</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.061279349832</v>
+        <v>501.7351264598472</v>
       </c>
       <c r="AD3" t="n">
-        <v>307080.3192630049</v>
+        <v>405389.8441912463</v>
       </c>
       <c r="AE3" t="n">
-        <v>420160.8402432008</v>
+        <v>554672.2693601626</v>
       </c>
       <c r="AF3" t="n">
         <v>7.443001556848665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.28935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>380061.279349832</v>
+        <v>501735.1264598472</v>
       </c>
     </row>
     <row r="4">
@@ -38864,28 +38864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.7248627124996</v>
+        <v>370.0675420296645</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.7859448181397</v>
+        <v>506.3427372326951</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.3032160495464</v>
+        <v>458.0180970477009</v>
       </c>
       <c r="AD4" t="n">
-        <v>271724.8627124996</v>
+        <v>370067.5420296645</v>
       </c>
       <c r="AE4" t="n">
-        <v>371785.9448181397</v>
+        <v>506342.7372326951</v>
       </c>
       <c r="AF4" t="n">
         <v>8.145700869300539e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>336303.2160495464</v>
+        <v>458018.0970477009</v>
       </c>
     </row>
     <row r="5">
@@ -38970,28 +38970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.3842068742991</v>
+        <v>339.8218819101682</v>
       </c>
       <c r="AB5" t="n">
-        <v>343.9549621337488</v>
+        <v>464.959290712849</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.1283832916276</v>
+        <v>420.5842285816769</v>
       </c>
       <c r="AD5" t="n">
-        <v>251384.2068742991</v>
+        <v>339821.8819101682</v>
       </c>
       <c r="AE5" t="n">
-        <v>343954.9621337488</v>
+        <v>464959.290712849</v>
       </c>
       <c r="AF5" t="n">
         <v>8.699508832540234e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>311128.3832916276</v>
+        <v>420584.228581677</v>
       </c>
     </row>
     <row r="6">
@@ -39076,28 +39076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.7267341992682</v>
+        <v>322.2317290428415</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.7952290270677</v>
+        <v>440.891667536997</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.2744212042422</v>
+        <v>398.813585582607</v>
       </c>
       <c r="AD6" t="n">
-        <v>233726.7341992682</v>
+        <v>322231.7290428415</v>
       </c>
       <c r="AE6" t="n">
-        <v>319795.2290270677</v>
+        <v>440891.667536997</v>
       </c>
       <c r="AF6" t="n">
         <v>9.140571725035564e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>289274.4212042422</v>
+        <v>398813.585582607</v>
       </c>
     </row>
     <row r="7">
@@ -39182,28 +39182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>229.3123336127433</v>
+        <v>307.9464895937984</v>
       </c>
       <c r="AB7" t="n">
-        <v>313.7552513949783</v>
+        <v>421.3459727025305</v>
       </c>
       <c r="AC7" t="n">
-        <v>283.8108905601956</v>
+        <v>381.133304430587</v>
       </c>
       <c r="AD7" t="n">
-        <v>229312.3336127434</v>
+        <v>307946.4895937984</v>
       </c>
       <c r="AE7" t="n">
-        <v>313755.2513949783</v>
+        <v>421345.9727025305</v>
       </c>
       <c r="AF7" t="n">
         <v>9.403513064792392e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>283810.8905601956</v>
+        <v>381133.304430587</v>
       </c>
     </row>
     <row r="8">
@@ -39288,28 +39288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>228.761073176623</v>
+        <v>307.395229157678</v>
       </c>
       <c r="AB8" t="n">
-        <v>313.0009925463849</v>
+        <v>420.5917138539367</v>
       </c>
       <c r="AC8" t="n">
-        <v>283.1286171175027</v>
+        <v>380.451030987894</v>
       </c>
       <c r="AD8" t="n">
-        <v>228761.073176623</v>
+        <v>307395.229157678</v>
       </c>
       <c r="AE8" t="n">
-        <v>313000.9925463849</v>
+        <v>420591.7138539366</v>
       </c>
       <c r="AF8" t="n">
         <v>9.434700648019134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.00694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>283128.6171175027</v>
+        <v>380451.030987894</v>
       </c>
     </row>
   </sheetData>
